--- a/Trabalhos/Syneco_Importa_xls/arqs de testes/1 INICIAL SSPImport_Template.xlsx
+++ b/Trabalhos/Syneco_Importa_xls/arqs de testes/1 INICIAL SSPImport_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Import_xls_Syneco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Git_haspian\Trabalhos\Syneco_Importa_xls\arqs de testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFF643B-31EA-4629-BBBE-A318EF7B122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05280C4-9C93-49A1-A936-9D2248DC15B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="15132" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2093" windowWidth="16200" windowHeight="9307" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arranjos" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>ARRANJOS</t>
   </si>
@@ -170,12 +170,6 @@
   </si>
   <si>
     <t>ACAO</t>
-  </si>
-  <si>
-    <t>N00001</t>
-  </si>
-  <si>
-    <t>N00002</t>
   </si>
   <si>
     <t>PLANQTY</t>
@@ -905,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.35"/>
@@ -943,79 +937,49 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="5">
-        <f>VLOOKUP(Tabela36[[#This Row],[OF]],Tabela3[[OF]:[CODPECA]],2)</f>
-        <v>435351</v>
-      </c>
-      <c r="D2" s="1" t="str">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5" t="e">
+        <f>VLOOKUP(Tabela36[[#This Row],[OF]],Tabela3[[OF]:[CODPECA]],2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="1" t="e">
         <f>VLOOKUP(C2,pcs_Desc!$A$2:$B$280,2,0)</f>
-        <v>Suporte B</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="5">
-        <f>VLOOKUP(Tabela36[[#This Row],[OF]],Tabela3[[OF]:[CODPECA]],2)</f>
-        <v>435351</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="e">
+        <f>VLOOKUP(Tabela36[[#This Row],[OF]],Tabela3[[OF]:[CODPECA]],2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="1" t="e">
         <f>VLOOKUP(C3,pcs_Desc!$A$2:$B$280,2,0)</f>
-        <v>Suporte B</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="5">
-        <f>VLOOKUP(Tabela36[[#This Row],[OF]],Tabela3[[OF]:[CODPECA]],2)</f>
-        <v>435360</v>
-      </c>
-      <c r="D4" s="1" t="str">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="e">
+        <f>VLOOKUP(Tabela36[[#This Row],[OF]],Tabela3[[OF]:[CODPECA]],2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="1" t="e">
         <f>VLOOKUP(C4,pcs_Desc!$A$2:$B$280,2,0)</f>
-        <v>Suporte C</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
@@ -2121,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2145,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -2272,34 +2236,34 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2653,50 +2617,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2704,15 +2668,15 @@
         <v>4324</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2720,7 +2684,7 @@
         <v>435346</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2728,7 +2692,7 @@
         <v>435347</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2736,7 +2700,7 @@
         <v>435348</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2744,7 +2708,7 @@
         <v>435349</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2752,7 +2716,7 @@
         <v>435350</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2760,7 +2724,7 @@
         <v>435351</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2768,7 +2732,7 @@
         <v>435352</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2776,7 +2740,7 @@
         <v>435353</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2784,7 +2748,7 @@
         <v>435354</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2792,7 +2756,7 @@
         <v>435355</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -2800,7 +2764,7 @@
         <v>435356</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2808,7 +2772,7 @@
         <v>435357</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -2816,7 +2780,7 @@
         <v>435358</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2824,7 +2788,7 @@
         <v>435359</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2832,7 +2796,7 @@
         <v>435360</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2840,7 +2804,7 @@
         <v>435361</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -2848,7 +2812,7 @@
         <v>435362</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2856,7 +2820,7 @@
         <v>435363</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2864,7 +2828,7 @@
         <v>435364</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2872,7 +2836,7 @@
         <v>435365</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2880,7 +2844,7 @@
         <v>435366</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2888,7 +2852,7 @@
         <v>435367</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2896,7 +2860,7 @@
         <v>435368</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -3666,10 +3630,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3677,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3685,7 +3649,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3693,7 +3657,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3701,7 +3665,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3709,7 +3673,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3717,7 +3681,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3725,7 +3689,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3733,7 +3697,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3741,7 +3705,7 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
